--- a/шаблон.xlsx
+++ b/шаблон.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dyplomna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1167DF8-7205-4F19-8423-C71ACCC9D48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DF34C8-9623-4C19-B73B-39C42F9D69FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Аркуш 1'!$A$1:$P$109</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,35 +44,10 @@
     <t>ЗАЕС</t>
   </si>
   <si>
-    <t>&lt;0,01</t>
-  </si>
-  <si>
     <t>РАЕС</t>
   </si>
   <si>
-    <r>
-      <t>&lt;0,01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>ХАЕС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;0,01     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;0,01          </t>
   </si>
   <si>
     <t>0.06</t>
@@ -124,6 +102,18 @@
   </si>
   <si>
     <t>Сумарний індекс скиду радіоактивних речовин, %</t>
+  </si>
+  <si>
+    <t>0,01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,01     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,01          </t>
+  </si>
+  <si>
+    <t>0,012</t>
   </si>
 </sst>
 </file>
@@ -547,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -574,52 +564,52 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -642,7 +632,7 @@
         <v>260</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H2" s="13">
         <v>650</v>
@@ -680,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="13">
         <v>105</v>
@@ -692,7 +682,7 @@
         <v>147</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H3" s="13">
         <v>269</v>
@@ -730,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13">
         <v>45</v>
@@ -742,7 +732,7 @@
         <v>76</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H4" s="13">
         <v>116</v>
@@ -780,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="13">
         <v>31</v>
@@ -792,13 +782,13 @@
         <v>26.8</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H5" s="13">
         <v>37.5</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J5" s="13">
         <v>29.4</v>
@@ -840,7 +830,7 @@
         <v>262</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H6" s="13">
         <v>640</v>
@@ -878,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="13">
         <v>113</v>
@@ -890,7 +880,7 @@
         <v>73</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H7" s="13">
         <v>231</v>
@@ -928,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" s="13">
         <v>37</v>
@@ -940,7 +930,7 @@
         <v>75</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H8" s="13">
         <v>177</v>
@@ -978,7 +968,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="13">
         <v>30</v>
@@ -990,13 +980,13 @@
         <v>27.6</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H9" s="13">
         <v>27.6</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J9" s="13">
         <v>21.1</v>
@@ -1038,7 +1028,7 @@
         <v>235</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H10" s="13">
         <v>611</v>
@@ -1076,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="13">
         <v>101</v>
@@ -1088,7 +1078,7 @@
         <v>45</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H11" s="13">
         <v>210</v>
@@ -1126,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12" s="13">
         <v>39</v>
@@ -1138,7 +1128,7 @@
         <v>88</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H12" s="13">
         <v>162</v>
@@ -1176,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="13">
         <v>33</v>
@@ -1188,13 +1178,13 @@
         <v>30</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H13" s="13">
         <v>30</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J13" s="13">
         <v>24</v>
@@ -1236,7 +1226,7 @@
         <v>240</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H14" s="13">
         <v>750</v>
@@ -1274,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="13">
         <v>92</v>
@@ -1286,7 +1276,7 @@
         <v>77</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H15" s="13">
         <v>223</v>
@@ -1324,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D16" s="13">
         <v>50</v>
@@ -1336,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H16" s="13">
         <v>200</v>
@@ -1374,7 +1364,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="13">
         <v>38</v>
@@ -1386,13 +1376,13 @@
         <v>33</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H17" s="13">
         <v>40</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J17" s="13">
         <v>101</v>
@@ -1434,7 +1424,7 @@
         <v>265</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H18" s="13">
         <v>697</v>
@@ -1472,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="13">
         <v>96</v>
@@ -1484,7 +1474,7 @@
         <v>39</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H19" s="13">
         <v>201</v>
@@ -1522,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D20" s="13">
         <v>54</v>
@@ -1534,7 +1524,7 @@
         <v>83</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H20" s="13">
         <v>165</v>
@@ -1572,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" s="13">
         <v>38.299999999999997</v>
@@ -1584,13 +1574,13 @@
         <v>33.299999999999997</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H21" s="13">
         <v>34.4</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J21" s="13">
         <v>11.2</v>
@@ -1609,7 +1599,7 @@
         <v>0.13</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1632,7 +1622,7 @@
         <v>234</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H22" s="15">
         <v>637</v>
@@ -1670,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="15">
         <v>107</v>
@@ -1682,7 +1672,7 @@
         <v>37</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H23" s="15">
         <v>287</v>
@@ -1720,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D24" s="15">
         <v>25</v>
@@ -1732,7 +1722,7 @@
         <v>84</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H24" s="15">
         <v>268</v>
@@ -1770,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="15">
         <v>40</v>
@@ -1782,13 +1772,13 @@
         <v>35</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H25" s="15">
         <v>35.200000000000003</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J25" s="15">
         <v>25.1</v>
@@ -1829,8 +1819,8 @@
       <c r="F26" s="15">
         <v>253</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>5</v>
+      <c r="G26" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H26" s="15">
         <v>571</v>
@@ -1868,7 +1858,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="15">
         <v>111</v>
@@ -1879,8 +1869,8 @@
       <c r="F27" s="15">
         <v>40</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>5</v>
+      <c r="G27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H27" s="15">
         <v>290</v>
@@ -1918,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D28" s="15">
         <v>39</v>
@@ -1929,8 +1919,8 @@
       <c r="F28" s="15">
         <v>68</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>5</v>
+      <c r="G28" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H28" s="15">
         <v>374</v>
@@ -1968,7 +1958,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" s="15">
         <v>35</v>
@@ -1979,14 +1969,14 @@
       <c r="F29" s="15">
         <v>32</v>
       </c>
-      <c r="G29" s="15" t="s">
-        <v>5</v>
+      <c r="G29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H29" s="15">
         <v>33</v>
       </c>
-      <c r="I29" s="15" t="s">
-        <v>5</v>
+      <c r="I29" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J29" s="15">
         <v>22</v>
@@ -2027,8 +2017,8 @@
       <c r="F30" s="15">
         <v>552</v>
       </c>
-      <c r="G30" s="15" t="s">
-        <v>5</v>
+      <c r="G30" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H30" s="15">
         <v>630</v>
@@ -2066,7 +2056,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="15">
         <v>101</v>
@@ -2077,8 +2067,8 @@
       <c r="F31" s="15">
         <v>37</v>
       </c>
-      <c r="G31" s="15" t="s">
-        <v>5</v>
+      <c r="G31" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H31" s="15">
         <v>271</v>
@@ -2116,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D32" s="15">
         <v>44</v>
@@ -2127,8 +2117,8 @@
       <c r="F32" s="15">
         <v>55</v>
       </c>
-      <c r="G32" s="15" t="s">
-        <v>5</v>
+      <c r="G32" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H32" s="15">
         <v>380</v>
@@ -2166,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" s="15">
         <v>35</v>
@@ -2177,14 +2167,14 @@
       <c r="F33" s="15">
         <v>33</v>
       </c>
-      <c r="G33" s="15" t="s">
-        <v>5</v>
+      <c r="G33" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H33" s="15">
         <v>39</v>
       </c>
-      <c r="I33" s="15" t="s">
-        <v>5</v>
+      <c r="I33" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J33" s="15">
         <v>16</v>
@@ -2225,8 +2215,8 @@
       <c r="F34" s="15">
         <v>250</v>
       </c>
-      <c r="G34" s="15" t="s">
-        <v>1</v>
+      <c r="G34" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H34" s="15">
         <v>505</v>
@@ -2264,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="15">
         <v>97</v>
@@ -2275,8 +2265,8 @@
       <c r="F35" s="15">
         <v>36</v>
       </c>
-      <c r="G35" s="15" t="s">
-        <v>1</v>
+      <c r="G35" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H35" s="15">
         <v>291</v>
@@ -2314,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D36" s="15">
         <v>60</v>
@@ -2325,8 +2315,8 @@
       <c r="F36" s="15">
         <v>60</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>1</v>
+      <c r="G36" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H36" s="15">
         <v>233</v>
@@ -2364,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" s="15">
         <v>31</v>
@@ -2375,14 +2365,14 @@
       <c r="F37" s="15">
         <v>31</v>
       </c>
-      <c r="G37" s="15" t="s">
-        <v>1</v>
+      <c r="G37" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H37" s="15">
         <v>31</v>
       </c>
-      <c r="I37" s="15" t="s">
-        <v>5</v>
+      <c r="I37" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J37" s="15">
         <v>18</v>
@@ -2423,8 +2413,8 @@
       <c r="F38" s="15">
         <v>250</v>
       </c>
-      <c r="G38" s="15" t="s">
-        <v>1</v>
+      <c r="G38" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H38" s="15">
         <v>523</v>
@@ -2462,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="15">
         <v>135</v>
@@ -2473,8 +2463,8 @@
       <c r="F39" s="15">
         <v>26</v>
       </c>
-      <c r="G39" s="15" t="s">
-        <v>1</v>
+      <c r="G39" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H39" s="15">
         <v>229</v>
@@ -2512,7 +2502,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D40" s="15">
         <v>40</v>
@@ -2523,8 +2513,8 @@
       <c r="F40" s="15">
         <v>259</v>
       </c>
-      <c r="G40" s="15" t="s">
-        <v>1</v>
+      <c r="G40" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H40" s="15">
         <v>226</v>
@@ -2562,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" s="15">
         <v>31</v>
@@ -2573,14 +2563,14 @@
       <c r="F41" s="15">
         <v>36</v>
       </c>
-      <c r="G41" s="15" t="s">
-        <v>1</v>
+      <c r="G41" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H41" s="15">
         <v>37</v>
       </c>
-      <c r="I41" s="15" t="s">
-        <v>5</v>
+      <c r="I41" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J41" s="15">
         <v>19</v>
@@ -2621,8 +2611,8 @@
       <c r="F42" s="15">
         <v>256</v>
       </c>
-      <c r="G42" s="15" t="s">
-        <v>1</v>
+      <c r="G42" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H42" s="15">
         <v>713</v>
@@ -2660,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="15">
         <v>114</v>
@@ -2671,8 +2661,8 @@
       <c r="F43" s="15">
         <v>31</v>
       </c>
-      <c r="G43" s="15" t="s">
-        <v>1</v>
+      <c r="G43" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H43" s="15">
         <v>289</v>
@@ -2710,7 +2700,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D44" s="15">
         <v>48</v>
@@ -2721,8 +2711,8 @@
       <c r="F44" s="15">
         <v>70</v>
       </c>
-      <c r="G44" s="15" t="s">
-        <v>1</v>
+      <c r="G44" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H44" s="15">
         <v>299</v>
@@ -2760,7 +2750,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" s="15">
         <v>32</v>
@@ -2771,14 +2761,14 @@
       <c r="F45" s="15">
         <v>34</v>
       </c>
-      <c r="G45" s="15" t="s">
-        <v>1</v>
+      <c r="G45" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H45" s="15">
         <v>33</v>
       </c>
-      <c r="I45" s="15" t="s">
-        <v>5</v>
+      <c r="I45" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J45" s="15">
         <v>19</v>
@@ -2819,8 +2809,8 @@
       <c r="F46" s="15">
         <v>241</v>
       </c>
-      <c r="G46" s="15" t="s">
-        <v>1</v>
+      <c r="G46" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H46" s="15">
         <v>721</v>
@@ -2858,7 +2848,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="15">
         <v>111</v>
@@ -2869,14 +2859,14 @@
       <c r="F47" s="15">
         <v>31</v>
       </c>
-      <c r="G47" s="15" t="s">
-        <v>1</v>
+      <c r="G47" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H47" s="15">
         <v>246</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J47" s="15">
         <v>136</v>
@@ -2908,7 +2898,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D48" s="15">
         <v>31</v>
@@ -2919,8 +2909,8 @@
       <c r="F48" s="15">
         <v>69</v>
       </c>
-      <c r="G48" s="15" t="s">
-        <v>1</v>
+      <c r="G48" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H48" s="15">
         <v>261</v>
@@ -2958,7 +2948,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" s="15">
         <v>32</v>
@@ -2969,14 +2959,14 @@
       <c r="F49" s="15">
         <v>32</v>
       </c>
-      <c r="G49" s="15" t="s">
-        <v>1</v>
+      <c r="G49" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H49" s="15">
         <v>39</v>
       </c>
-      <c r="I49" s="15" t="s">
-        <v>5</v>
+      <c r="I49" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J49" s="15">
         <v>16</v>
@@ -3017,8 +3007,8 @@
       <c r="F50" s="15">
         <v>241</v>
       </c>
-      <c r="G50" s="15" t="s">
-        <v>1</v>
+      <c r="G50" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H50" s="15">
         <v>433</v>
@@ -3056,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="15">
         <v>113</v>
@@ -3067,8 +3057,8 @@
       <c r="F51" s="15">
         <v>31</v>
       </c>
-      <c r="G51" s="15" t="s">
-        <v>1</v>
+      <c r="G51" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H51" s="15">
         <v>225</v>
@@ -3106,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D52" s="15">
         <v>28</v>
@@ -3117,8 +3107,8 @@
       <c r="F52" s="15">
         <v>83</v>
       </c>
-      <c r="G52" s="15" t="s">
-        <v>1</v>
+      <c r="G52" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H52" s="15">
         <v>155</v>
@@ -3156,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" s="15">
         <v>31</v>
@@ -3167,14 +3157,14 @@
       <c r="F53" s="15">
         <v>31</v>
       </c>
-      <c r="G53" s="15" t="s">
-        <v>1</v>
+      <c r="G53" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H53" s="15">
         <v>31</v>
       </c>
-      <c r="I53" s="15" t="s">
-        <v>5</v>
+      <c r="I53" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J53" s="15">
         <v>19</v>
@@ -3215,8 +3205,8 @@
       <c r="F54" s="15">
         <v>143</v>
       </c>
-      <c r="G54" s="15" t="s">
-        <v>1</v>
+      <c r="G54" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H54" s="15">
         <v>644</v>
@@ -3254,7 +3244,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="15">
         <v>98</v>
@@ -3265,8 +3255,8 @@
       <c r="F55" s="15">
         <v>31</v>
       </c>
-      <c r="G55" s="15" t="s">
-        <v>1</v>
+      <c r="G55" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H55" s="15">
         <v>178</v>
@@ -3304,7 +3294,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D56" s="15">
         <v>31</v>
@@ -3315,8 +3305,8 @@
       <c r="F56" s="15">
         <v>99</v>
       </c>
-      <c r="G56" s="15" t="s">
-        <v>1</v>
+      <c r="G56" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H56" s="15">
         <v>181</v>
@@ -3354,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" s="15">
         <v>40</v>
@@ -3365,14 +3355,14 @@
       <c r="F57" s="15">
         <v>83</v>
       </c>
-      <c r="G57" s="15" t="s">
-        <v>1</v>
+      <c r="G57" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H57" s="15">
         <v>39</v>
       </c>
-      <c r="I57" s="15" t="s">
-        <v>5</v>
+      <c r="I57" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J57" s="15">
         <v>22</v>
@@ -3413,8 +3403,8 @@
       <c r="F58" s="15">
         <v>67</v>
       </c>
-      <c r="G58" s="15" t="s">
-        <v>1</v>
+      <c r="G58" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H58" s="15">
         <v>693</v>
@@ -3452,7 +3442,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="15">
         <v>115</v>
@@ -3463,8 +3453,8 @@
       <c r="F59" s="15">
         <v>29</v>
       </c>
-      <c r="G59" s="15" t="s">
-        <v>1</v>
+      <c r="G59" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H59" s="15">
         <v>179</v>
@@ -3502,7 +3492,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D60" s="15">
         <v>29</v>
@@ -3513,8 +3503,8 @@
       <c r="F60" s="15">
         <v>75</v>
       </c>
-      <c r="G60" s="15" t="s">
-        <v>1</v>
+      <c r="G60" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H60" s="15">
         <v>264</v>
@@ -3552,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" s="15">
         <v>36</v>
@@ -3563,14 +3553,14 @@
       <c r="F61" s="15">
         <v>39</v>
       </c>
-      <c r="G61" s="15" t="s">
-        <v>1</v>
+      <c r="G61" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H61" s="15">
         <v>35</v>
       </c>
-      <c r="I61" s="15" t="s">
-        <v>5</v>
+      <c r="I61" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J61" s="15">
         <v>20</v>
@@ -3611,8 +3601,8 @@
       <c r="F62" s="15">
         <v>62</v>
       </c>
-      <c r="G62" s="15" t="s">
-        <v>1</v>
+      <c r="G62" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H62" s="15">
         <v>754</v>
@@ -3650,7 +3640,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="15">
         <v>117</v>
@@ -3661,8 +3651,8 @@
       <c r="F63" s="15">
         <v>67</v>
       </c>
-      <c r="G63" s="15" t="s">
-        <v>1</v>
+      <c r="G63" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H63" s="15">
         <v>311</v>
@@ -3700,7 +3690,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D64" s="15">
         <v>26</v>
@@ -3711,8 +3701,8 @@
       <c r="F64" s="15">
         <v>96</v>
       </c>
-      <c r="G64" s="15" t="s">
-        <v>1</v>
+      <c r="G64" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H64" s="15">
         <v>278</v>
@@ -3750,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" s="15">
         <v>28</v>
@@ -3761,14 +3751,14 @@
       <c r="F65" s="15">
         <v>28</v>
       </c>
-      <c r="G65" s="15" t="s">
-        <v>1</v>
+      <c r="G65" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H65" s="15">
         <v>28</v>
       </c>
-      <c r="I65" s="15" t="s">
-        <v>5</v>
+      <c r="I65" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J65" s="15">
         <v>22</v>
@@ -3809,8 +3799,8 @@
       <c r="F66" s="15">
         <v>65</v>
       </c>
-      <c r="G66" s="15" t="s">
-        <v>1</v>
+      <c r="G66" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H66" s="15">
         <v>604</v>
@@ -3848,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="15">
         <v>148</v>
@@ -3859,8 +3849,8 @@
       <c r="F67" s="15">
         <v>36</v>
       </c>
-      <c r="G67" s="15" t="s">
-        <v>1</v>
+      <c r="G67" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H67" s="15">
         <v>227</v>
@@ -3898,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D68" s="15">
         <v>31</v>
@@ -3909,8 +3899,8 @@
       <c r="F68" s="15">
         <v>83</v>
       </c>
-      <c r="G68" s="15" t="s">
-        <v>1</v>
+      <c r="G68" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H68" s="15">
         <v>197</v>
@@ -3948,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" s="15">
         <v>31</v>
@@ -3959,14 +3949,14 @@
       <c r="F69" s="15">
         <v>84</v>
       </c>
-      <c r="G69" s="15" t="s">
-        <v>1</v>
+      <c r="G69" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H69" s="15">
         <v>32</v>
       </c>
-      <c r="I69" s="15" t="s">
-        <v>5</v>
+      <c r="I69" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J69" s="15">
         <v>35</v>
@@ -4007,8 +3997,8 @@
       <c r="F70" s="15">
         <v>64</v>
       </c>
-      <c r="G70" s="15" t="s">
-        <v>1</v>
+      <c r="G70" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H70" s="15">
         <v>500</v>
@@ -4046,7 +4036,7 @@
         <v>2</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="15">
         <v>147</v>
@@ -4057,8 +4047,8 @@
       <c r="F71" s="15">
         <v>176</v>
       </c>
-      <c r="G71" s="15" t="s">
-        <v>1</v>
+      <c r="G71" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H71" s="15">
         <v>256</v>
@@ -4096,7 +4086,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D72" s="15">
         <v>27</v>
@@ -4107,8 +4097,8 @@
       <c r="F72" s="15">
         <v>98</v>
       </c>
-      <c r="G72" s="15" t="s">
-        <v>1</v>
+      <c r="G72" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H72" s="15">
         <v>223</v>
@@ -4146,7 +4136,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" s="15">
         <v>32</v>
@@ -4157,14 +4147,14 @@
       <c r="F73" s="15">
         <v>33</v>
       </c>
-      <c r="G73" s="15" t="s">
-        <v>1</v>
+      <c r="G73" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H73" s="15">
         <v>36</v>
       </c>
-      <c r="I73" s="15" t="s">
-        <v>5</v>
+      <c r="I73" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J73" s="15">
         <v>40</v>
@@ -4207,8 +4197,8 @@
       <c r="F74" s="15">
         <v>64</v>
       </c>
-      <c r="G74" s="15" t="s">
-        <v>1</v>
+      <c r="G74" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H74" s="15">
         <v>450</v>
@@ -4246,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="15">
         <v>176</v>
@@ -4257,8 +4247,8 @@
       <c r="F75" s="15">
         <v>31</v>
       </c>
-      <c r="G75" s="15" t="s">
-        <v>1</v>
+      <c r="G75" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H75" s="15">
         <v>236</v>
@@ -4296,7 +4286,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D76" s="15">
         <v>26</v>
@@ -4307,8 +4297,8 @@
       <c r="F76" s="15">
         <v>65</v>
       </c>
-      <c r="G76" s="15" t="s">
-        <v>1</v>
+      <c r="G76" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H76" s="15">
         <v>217</v>
@@ -4346,7 +4336,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" s="15">
         <v>30</v>
@@ -4357,14 +4347,14 @@
       <c r="F77" s="15">
         <v>31</v>
       </c>
-      <c r="G77" s="15" t="s">
-        <v>1</v>
+      <c r="G77" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H77" s="15">
         <v>33</v>
       </c>
-      <c r="I77" s="15" t="s">
-        <v>5</v>
+      <c r="I77" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J77" s="15">
         <v>30</v>
@@ -4420,7 +4410,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" s="15">
         <v>205</v>
@@ -4431,8 +4421,8 @@
       <c r="F79" s="15">
         <v>94</v>
       </c>
-      <c r="G79" s="15" t="s">
-        <v>1</v>
+      <c r="G79" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H79" s="15">
         <v>219</v>
@@ -4470,7 +4460,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D80" s="15">
         <v>36</v>
@@ -4481,8 +4471,8 @@
       <c r="F80" s="15">
         <v>76</v>
       </c>
-      <c r="G80" s="15" t="s">
-        <v>1</v>
+      <c r="G80" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H80" s="15">
         <v>225</v>
@@ -4520,7 +4510,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" s="15">
         <v>30</v>
@@ -4531,14 +4521,14 @@
       <c r="F81" s="15">
         <v>28</v>
       </c>
-      <c r="G81" s="15" t="s">
-        <v>1</v>
+      <c r="G81" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H81" s="15">
         <v>28</v>
       </c>
-      <c r="I81" s="15" t="s">
-        <v>5</v>
+      <c r="I81" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J81" s="15">
         <v>41</v>
@@ -4594,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" s="15">
         <v>137</v>
@@ -4605,8 +4595,8 @@
       <c r="F83" s="15">
         <v>356</v>
       </c>
-      <c r="G83" s="15" t="s">
-        <v>1</v>
+      <c r="G83" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H83" s="15">
         <v>311</v>
@@ -4644,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D84" s="15">
         <v>54</v>
@@ -4655,8 +4645,8 @@
       <c r="F84" s="15">
         <v>65</v>
       </c>
-      <c r="G84" s="15" t="s">
-        <v>1</v>
+      <c r="G84" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H84" s="15">
         <v>145</v>
@@ -4694,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" s="15">
         <v>30</v>
@@ -4705,14 +4695,14 @@
       <c r="F85" s="15">
         <v>30</v>
       </c>
-      <c r="G85" s="15" t="s">
-        <v>1</v>
+      <c r="G85" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H85" s="15">
         <v>30</v>
       </c>
-      <c r="I85" s="15" t="s">
-        <v>1</v>
+      <c r="I85" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J85" s="15">
         <v>59</v>
@@ -4732,8 +4722,8 @@
       <c r="O85" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P85" s="15" t="s">
-        <v>1</v>
+      <c r="P85" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -4768,7 +4758,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="15">
         <v>130</v>
@@ -4779,8 +4769,8 @@
       <c r="F87" s="15">
         <v>198</v>
       </c>
-      <c r="G87" s="15" t="s">
-        <v>1</v>
+      <c r="G87" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H87" s="15">
         <v>296</v>
@@ -4818,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D88" s="15">
         <v>32</v>
@@ -4829,8 +4819,8 @@
       <c r="F88" s="15">
         <v>88</v>
       </c>
-      <c r="G88" s="15" t="s">
-        <v>1</v>
+      <c r="G88" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H88" s="15">
         <v>171</v>
@@ -4868,7 +4858,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" s="15">
         <v>28</v>
@@ -4879,14 +4869,14 @@
       <c r="F89" s="15">
         <v>29</v>
       </c>
-      <c r="G89" s="15" t="s">
-        <v>1</v>
+      <c r="G89" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H89" s="15">
         <v>29</v>
       </c>
-      <c r="I89" s="15" t="s">
-        <v>1</v>
+      <c r="I89" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J89" s="15">
         <v>31</v>
@@ -4942,7 +4932,7 @@
         <v>3</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" s="15">
         <v>129</v>
@@ -4953,8 +4943,8 @@
       <c r="F91" s="15">
         <v>36</v>
       </c>
-      <c r="G91" s="15" t="s">
-        <v>1</v>
+      <c r="G91" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H91" s="15">
         <v>326</v>
@@ -4992,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D92" s="15">
         <v>51</v>
@@ -5003,8 +4993,8 @@
       <c r="F92" s="15">
         <v>101</v>
       </c>
-      <c r="G92" s="15" t="s">
-        <v>1</v>
+      <c r="G92" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H92" s="15">
         <v>194</v>
@@ -5042,7 +5032,7 @@
         <v>3</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" s="15">
         <v>33</v>
@@ -5053,14 +5043,14 @@
       <c r="F93" s="15">
         <v>54</v>
       </c>
-      <c r="G93" s="15" t="s">
-        <v>1</v>
+      <c r="G93" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H93" s="15">
         <v>35</v>
       </c>
-      <c r="I93" s="15" t="s">
-        <v>1</v>
+      <c r="I93" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J93" s="15">
         <v>33</v>
@@ -5116,7 +5106,7 @@
         <v>4</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" s="15">
         <v>128</v>
@@ -5127,8 +5117,8 @@
       <c r="F95" s="15">
         <v>65</v>
       </c>
-      <c r="G95" s="15" t="s">
-        <v>1</v>
+      <c r="G95" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H95" s="15">
         <v>227</v>
@@ -5166,7 +5156,7 @@
         <v>4</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D96" s="15">
         <v>57</v>
@@ -5177,8 +5167,8 @@
       <c r="F96" s="15">
         <v>84</v>
       </c>
-      <c r="G96" s="15" t="s">
-        <v>1</v>
+      <c r="G96" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H96" s="15">
         <v>200</v>
@@ -5216,7 +5206,7 @@
         <v>4</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" s="15">
         <v>25</v>
@@ -5227,14 +5217,14 @@
       <c r="F97" s="15">
         <v>31</v>
       </c>
-      <c r="G97" s="15" t="s">
-        <v>1</v>
+      <c r="G97" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H97" s="15">
         <v>32</v>
       </c>
-      <c r="I97" s="15" t="s">
-        <v>1</v>
+      <c r="I97" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J97" s="15">
         <v>37</v>
@@ -5290,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" s="15">
         <v>114</v>
@@ -5301,8 +5291,8 @@
       <c r="F99" s="15">
         <v>32</v>
       </c>
-      <c r="G99" s="15" t="s">
-        <v>1</v>
+      <c r="G99" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H99" s="15">
         <v>240</v>
@@ -5340,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D100" s="15">
         <v>60</v>
@@ -5351,8 +5341,8 @@
       <c r="F100" s="15">
         <v>71</v>
       </c>
-      <c r="G100" s="15" t="s">
-        <v>1</v>
+      <c r="G100" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H100" s="15">
         <v>167</v>
@@ -5390,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" s="15">
         <v>29</v>
@@ -5401,14 +5391,14 @@
       <c r="F101" s="15">
         <v>31</v>
       </c>
-      <c r="G101" s="15" t="s">
-        <v>1</v>
+      <c r="G101" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H101" s="15">
         <v>31</v>
       </c>
-      <c r="I101" s="15" t="s">
-        <v>1</v>
+      <c r="I101" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J101" s="15">
         <v>57</v>
@@ -5464,7 +5454,7 @@
         <v>2</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103" s="15">
         <v>132</v>
@@ -5475,8 +5465,8 @@
       <c r="F103" s="15">
         <v>30</v>
       </c>
-      <c r="G103" s="15" t="s">
-        <v>1</v>
+      <c r="G103" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H103" s="15">
         <v>362</v>
@@ -5514,7 +5504,7 @@
         <v>2</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D104" s="15">
         <v>21</v>
@@ -5525,8 +5515,8 @@
       <c r="F104" s="15">
         <v>87</v>
       </c>
-      <c r="G104" s="15" t="s">
-        <v>1</v>
+      <c r="G104" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H104" s="15">
         <v>154</v>
@@ -5564,7 +5554,7 @@
         <v>2</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D105" s="15">
         <v>38</v>
@@ -5575,14 +5565,14 @@
       <c r="F105" s="15">
         <v>31</v>
       </c>
-      <c r="G105" s="15" t="s">
-        <v>1</v>
+      <c r="G105" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H105" s="15">
         <v>31</v>
       </c>
-      <c r="I105" s="15" t="s">
-        <v>1</v>
+      <c r="I105" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J105" s="15">
         <v>32</v>
@@ -5638,7 +5628,7 @@
         <v>3</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" s="15">
         <v>131</v>
@@ -5649,8 +5639,8 @@
       <c r="F107" s="15">
         <v>19</v>
       </c>
-      <c r="G107" s="15" t="s">
-        <v>1</v>
+      <c r="G107" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H107" s="15">
         <v>297</v>
@@ -5688,7 +5678,7 @@
         <v>3</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D108" s="15">
         <v>23</v>
@@ -5699,8 +5689,8 @@
       <c r="F108" s="15">
         <v>99</v>
       </c>
-      <c r="G108" s="15" t="s">
-        <v>1</v>
+      <c r="G108" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H108" s="15">
         <v>203</v>
@@ -5738,7 +5728,7 @@
         <v>3</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D109" s="15">
         <v>33</v>
@@ -5749,14 +5739,14 @@
       <c r="F109" s="15">
         <v>39</v>
       </c>
-      <c r="G109" s="15" t="s">
-        <v>1</v>
+      <c r="G109" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="H109" s="15">
         <v>33</v>
       </c>
-      <c r="I109" s="15" t="s">
-        <v>1</v>
+      <c r="I109" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J109" s="15">
         <v>44</v>
@@ -5781,60 +5771,12 @@
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D111" s="10">
-        <f>MODE(D2:D109)</f>
-        <v>31</v>
-      </c>
-      <c r="E111" s="10">
-        <f t="shared" ref="E111:P111" si="0">MODE(E2:E109)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F111" s="10">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="G111" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H111" s="10">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="I111" s="10">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
-      </c>
-      <c r="J111" s="10">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="K111" s="10">
-        <f t="shared" si="0"/>
-        <v>281</v>
-      </c>
-      <c r="L111" s="10">
-        <f t="shared" si="0"/>
-        <v>587</v>
-      </c>
-      <c r="M111" s="10">
-        <f t="shared" si="0"/>
-        <v>813</v>
-      </c>
-      <c r="N111" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O111" s="10">
-        <f t="shared" si="0"/>
-        <v>0.13</v>
-      </c>
-      <c r="P111" s="10">
-        <f t="shared" si="0"/>
-        <v>0.11</v>
-      </c>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P109" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
